--- a/biology/Microbiologie/Edwardsiella/Edwardsiella.xlsx
+++ b/biology/Microbiologie/Edwardsiella/Edwardsiella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Edwardsiella est un genre de bacilles Gram négatifs (BGN) de la famille des Hafniaceae. Son nom fait référence au bactériologiste Philip R. Edwards[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Edwardsiella est un genre de bacilles Gram négatifs (BGN) de la famille des Hafniaceae. Son nom fait référence au bactériologiste Philip R. Edwards.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jusqu'en 2016 ce genre était compté parmi les Enterobacteriaceae auquel il était rattaché sur la base de critères phénotypiques. Depuis la refonte de l'ordre des Enterobacterales en 2016 par Adeolu et al. à l'aide des techniques de phylogénétique moléculaire, il a été déplacé vers la famille des Hafniaceae nouvellement créée[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jusqu'en 2016 ce genre était compté parmi les Enterobacteriaceae auquel il était rattaché sur la base de critères phénotypiques. Depuis la refonte de l'ordre des Enterobacterales en 2016 par Adeolu et al. à l'aide des techniques de phylogénétique moléculaire, il a été déplacé vers la famille des Hafniaceae nouvellement créée.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon LPSN  (25 octobre 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (25 octobre 2022) :
 Edwardsiella anguillarum Shao et al. 2015
 Edwardsiella hoshinae Grimont et al. 1981
 Edwardsiella ictaluri Hawke et al. 1981
